--- a/data/trans_dic/P14_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 16,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 24,94</t>
+          <t>7,6; 39,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 11,71</t>
+          <t>1,76; 15,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,52</t>
+          <t>3,89; 23,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,08</t>
+          <t>1,32; 11,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,06</t>
+          <t>8,82; 26,02</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,67</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 26,05</t>
+          <t>5,27; 30,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,17</t>
+          <t>1,84; 15,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 24,52</t>
+          <t>11,7; 31,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,27</t>
+          <t>1,54; 9,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 21,88</t>
+          <t>10,19; 25,87</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>23,83%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,98</t>
+          <t>3,58; 20,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 23,82</t>
+          <t>11,31; 31,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 15,86</t>
+          <t>7,03; 18,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 28,92</t>
+          <t>18,82; 36,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,44</t>
+          <t>7,01; 16,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 24,84</t>
+          <t>17,21; 30,53</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>18,43%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 16,15</t>
+          <t>4,8; 17,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 25,05</t>
+          <t>10,79; 28,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,39</t>
+          <t>0,96; 7,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 24,79</t>
+          <t>11,57; 27,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 9,72</t>
+          <t>3,29; 10,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 22,2</t>
+          <t>12,98; 24,21</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,85</t>
+          <t>0,0; 9,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,48; 22,04</t>
+          <t>8,01; 25,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,16</t>
+          <t>0,0; 9,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 15,47</t>
+          <t>1,98; 21,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,7</t>
+          <t>0,76; 6,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 16,91</t>
+          <t>6,85; 20,01</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1007,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,36</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 17,34</t>
+          <t>2,17; 25,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 6,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 10,47</t>
+          <t>1,17; 14,9</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>16,6%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,07</t>
+          <t>2,91; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,8</t>
+          <t>11,85; 20,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,48</t>
+          <t>4,06; 8,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,69; 17,04</t>
+          <t>13,75; 21,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,24</t>
+          <t>4,23; 7,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,74</t>
+          <t>13,67; 19,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3594</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21714</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8399</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12716</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11994</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34430</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17393</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8029; 41710</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2359; 20947</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4671; 28280</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3191; 27285</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19922; 58765</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2781</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20732</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11452</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26219</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14233</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46951</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15543</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7553; 43483</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3035; 25906</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14825; 40124</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5126; 31636</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27530; 69872</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16295</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26815</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32758</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55097</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>49053</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>81912</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5804; 33057</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15197; 42440</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18561; 50018</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39408; 75476</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29858; 72022</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59159; 104926</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18342</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29556</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6501</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34424</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24843</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63980</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8969; 32392</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17391; 45328</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2092; 17437</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21513; 50336</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13338; 43174</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45065; 84041</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4827</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20455</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2291</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7967</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28422</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15327</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10423; 32545</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11584</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1857; 19868</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2082; 19078</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15337; 44814</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10383</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10383</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13628</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2285; 27307</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16913</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2244; 28688</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>45839</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>119273</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>64463</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>146805</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>110302</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>266077</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25898; 68988</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>90293; 156207</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>42004; 90591</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>115663; 177440</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>81423; 148712</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>219096; 313204</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>